--- a/Assets/Excel/Human.xlsx
+++ b/Assets/Excel/Human.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14290" windowHeight="10370"/>
+    <workbookView windowWidth="14510" windowHeight="10930"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1059,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1093,7 +1093,7 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1127,7 +1127,7 @@
         <v>-1000</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>

--- a/Assets/Excel/Human.xlsx
+++ b/Assets/Excel/Human.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14510" windowHeight="10930"/>
+    <workbookView windowWidth="14730" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Human" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1110,7 +1110,7 @@
         <v>-100</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         <v>-1000</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
